--- a/data/trans_orig/P14_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>50091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38136</v>
+        <v>38744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63238</v>
+        <v>61944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1834781035691233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.139687818977845</v>
+        <v>0.1419144882434569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2316342289757252</v>
+        <v>0.2268925458922307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -765,19 +765,19 @@
         <v>67405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53877</v>
+        <v>54092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83895</v>
+        <v>82153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2584183288421896</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2065523158276949</v>
+        <v>0.2073788213065223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.321635921612432</v>
+        <v>0.3149589862549136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -786,19 +786,19 @@
         <v>117497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100266</v>
+        <v>100232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137667</v>
+        <v>137331</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2200938896564643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1878183758278904</v>
+        <v>0.1877535905155708</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2578774876527712</v>
+        <v>0.257247713305094</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>44964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33326</v>
+        <v>33791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57900</v>
+        <v>57456</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1646973463302675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.122069170354246</v>
+        <v>0.1237706065456856</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2120803757690275</v>
+        <v>0.2104534539385178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -836,19 +836,19 @@
         <v>59524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47035</v>
+        <v>47053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73000</v>
+        <v>72381</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2282047601265031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1803228184777222</v>
+        <v>0.1803910843702883</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2798660326149033</v>
+        <v>0.2774926528361721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -857,19 +857,19 @@
         <v>104489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85617</v>
+        <v>88349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>123762</v>
+        <v>124251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1957270619476151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1603770940794686</v>
+        <v>0.1654946410384625</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2318301338840173</v>
+        <v>0.2327455363102361</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>177955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160974</v>
+        <v>162184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>193288</v>
+        <v>192506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6518245501006092</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.589625751569155</v>
+        <v>0.594057137441845</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7079889556821862</v>
+        <v>0.705124031588259</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -907,19 +907,19 @@
         <v>133908</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>117393</v>
+        <v>117687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151050</v>
+        <v>151017</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5133769110313073</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4500604976754661</v>
+        <v>0.4511896452894973</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5790937310237478</v>
+        <v>0.5789685122961395</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>295</v>
@@ -928,19 +928,19 @@
         <v>311863</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>288497</v>
+        <v>289051</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>334424</v>
+        <v>335083</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5841790483959206</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5404105144522984</v>
+        <v>0.5414482747242653</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.626439819667332</v>
+        <v>0.6276740625945607</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>89212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71842</v>
+        <v>72832</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>109508</v>
+        <v>106651</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1809289452147738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1457019852752542</v>
+        <v>0.1477093203189911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2220919586866276</v>
+        <v>0.2162967450847163</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>200</v>
@@ -1053,19 +1053,19 @@
         <v>203763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>183744</v>
+        <v>183393</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>225805</v>
+        <v>225812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4043330875561732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3646089842979373</v>
+        <v>0.3639125975384822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4480701902337754</v>
+        <v>0.4480842497826557</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>284</v>
@@ -1074,19 +1074,19 @@
         <v>292975</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>265721</v>
+        <v>264575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>322402</v>
+        <v>320477</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.293849284521584</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2665137515446069</v>
+        <v>0.2653648764024995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3233646562370043</v>
+        <v>0.3214332569968987</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>123196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>105480</v>
+        <v>104045</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>144686</v>
+        <v>143072</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2498515786637711</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2139221517661456</v>
+        <v>0.2110129836263181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.29343645277121</v>
+        <v>0.2901617954695433</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>127</v>
@@ -1124,19 +1124,19 @@
         <v>126136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>108360</v>
+        <v>107809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>145008</v>
+        <v>146153</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2502947708750077</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2150216555045086</v>
+        <v>0.2139277337043678</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.287744274287109</v>
+        <v>0.2900147783509275</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>244</v>
@@ -1145,19 +1145,19 @@
         <v>249331</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>221119</v>
+        <v>222482</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>276828</v>
+        <v>278561</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2500755915864791</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2217786190516932</v>
+        <v>0.2231458558674957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2776546086191667</v>
+        <v>0.2793923366658695</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>280668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>258911</v>
+        <v>258748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302040</v>
+        <v>301575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5692194761214551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5250951082132326</v>
+        <v>0.5247647293264095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6125649353082455</v>
+        <v>0.6116211782296253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -1195,19 +1195,19 @@
         <v>174050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153905</v>
+        <v>155338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195902</v>
+        <v>196602</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.345372141568819</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3053982855746843</v>
+        <v>0.3082415964059225</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3887339142322637</v>
+        <v>0.3901232355172943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>436</v>
@@ -1216,19 +1216,19 @@
         <v>454718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>423384</v>
+        <v>420960</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485688</v>
+        <v>485038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4560751238919368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4246475111521408</v>
+        <v>0.4222169436702717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4871374844687258</v>
+        <v>0.4864861615034191</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>52608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41135</v>
+        <v>41220</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67079</v>
+        <v>67602</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1649948708663143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1290114072626683</v>
+        <v>0.1292801085868361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.210382008316896</v>
+        <v>0.2120214809843182</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>103</v>
@@ -1341,19 +1341,19 @@
         <v>103040</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>86788</v>
+        <v>87107</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>120017</v>
+        <v>119594</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3072029690840987</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2587504760821776</v>
+        <v>0.2597018748460707</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3578202561492299</v>
+        <v>0.3565588825490617</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>156</v>
@@ -1362,19 +1362,19 @@
         <v>155648</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134325</v>
+        <v>135912</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177230</v>
+        <v>178049</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2378993049328752</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2053092141367321</v>
+        <v>0.2077349255761007</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2708870796088586</v>
+        <v>0.2721395787518119</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>65497</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51409</v>
+        <v>51288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79399</v>
+        <v>79471</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2054203508589575</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1612333679479308</v>
+        <v>0.1608544833825906</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2490192030115678</v>
+        <v>0.2492457095593122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -1412,19 +1412,19 @@
         <v>91435</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74859</v>
+        <v>75925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107724</v>
+        <v>106468</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.272605212111969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2231842714023368</v>
+        <v>0.2263631470544518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3211704182056587</v>
+        <v>0.3174257873556914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -1433,19 +1433,19 @@
         <v>156933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137573</v>
+        <v>137666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179795</v>
+        <v>179220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2398633562072891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2102734549065477</v>
+        <v>0.210414837384051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2748070931046843</v>
+        <v>0.2739293206913306</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>200741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>182909</v>
+        <v>182370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218690</v>
+        <v>215792</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6295847782747281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5736578740179451</v>
+        <v>0.5719683607341219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6858790798028808</v>
+        <v>0.6767910439649939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -1483,19 +1483,19 @@
         <v>140937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122890</v>
+        <v>121994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>159880</v>
+        <v>159215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4201918188039322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3663843568873394</v>
+        <v>0.3637150117832936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.476666499153489</v>
+        <v>0.4746845530557527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -1504,19 +1504,19 @@
         <v>341678</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>315596</v>
+        <v>318146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365800</v>
+        <v>366866</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5222373388598357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4823721919062486</v>
+        <v>0.4862695964957258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.559106544922041</v>
+        <v>0.5607363530059747</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>74595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59013</v>
+        <v>59619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90635</v>
+        <v>89108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2079762748418852</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1645310157227201</v>
+        <v>0.166222193935534</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2526973526168093</v>
+        <v>0.248438967956483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>118</v>
@@ -1629,19 +1629,19 @@
         <v>113907</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96544</v>
+        <v>96893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131545</v>
+        <v>131596</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3066497156847864</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2599073992610694</v>
+        <v>0.2608476777805172</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3541337477247444</v>
+        <v>0.3542707347712224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -1650,19 +1650,19 @@
         <v>188502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166142</v>
+        <v>166605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>211404</v>
+        <v>212913</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2581769033961647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2275522533382117</v>
+        <v>0.2281859463577844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2895440737899813</v>
+        <v>0.291611003359385</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>71266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56118</v>
+        <v>56972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85551</v>
+        <v>87171</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1986954267636122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1564602506964658</v>
+        <v>0.1588413175214164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2385216634257147</v>
+        <v>0.2430375160343954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>98</v>
@@ -1700,19 +1700,19 @@
         <v>95175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79191</v>
+        <v>78054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111038</v>
+        <v>112269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2562224909913702</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2131919419321057</v>
+        <v>0.2101289448886192</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2989272148139677</v>
+        <v>0.3022411895320811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>174</v>
@@ -1721,19 +1721,19 @@
         <v>166442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146760</v>
+        <v>144363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189436</v>
+        <v>191128</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2279626212431652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2010059885775259</v>
+        <v>0.1977236200576538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2594562373565102</v>
+        <v>0.2617736544494</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>212810</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195518</v>
+        <v>194715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>231752</v>
+        <v>230172</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5933282983945026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.545117271295965</v>
+        <v>0.5428780158009131</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.646139728949419</v>
+        <v>0.6417370294552435</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>168</v>
@@ -1771,19 +1771,19 @@
         <v>162374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>143781</v>
+        <v>142678</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>180923</v>
+        <v>181231</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4371277933238434</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3870740691380226</v>
+        <v>0.384104040344099</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4870641263409598</v>
+        <v>0.4878928131876501</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>377</v>
@@ -1792,19 +1792,19 @@
         <v>375183</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>349907</v>
+        <v>349165</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>402149</v>
+        <v>400699</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5138604753606701</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4792416534821169</v>
+        <v>0.4782249488609225</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5507938411017691</v>
+        <v>0.548807635722962</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>25932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17073</v>
+        <v>18114</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35358</v>
+        <v>36308</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1275484755756079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08397567594487111</v>
+        <v>0.08909673671495009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1739143124501028</v>
+        <v>0.1785838911831533</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -1917,19 +1917,19 @@
         <v>63361</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50506</v>
+        <v>49700</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78829</v>
+        <v>76605</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3051067982462148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2432061949536715</v>
+        <v>0.2393257201762462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3795922830969222</v>
+        <v>0.3688812319780776</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -1938,19 +1938,19 @@
         <v>89293</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73344</v>
+        <v>74818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107399</v>
+        <v>107540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2172694754037969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1784636543522724</v>
+        <v>0.1820497058168218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2613260510663661</v>
+        <v>0.2616693648370251</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>65466</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53544</v>
+        <v>53725</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78883</v>
+        <v>79563</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3220049724777799</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2633637798420807</v>
+        <v>0.2642532565764406</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3879959534943266</v>
+        <v>0.391339982961856</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>58</v>
@@ -1988,19 +1988,19 @@
         <v>58823</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>45689</v>
+        <v>45987</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>71845</v>
+        <v>72984</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2832570584457842</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2200115971689563</v>
+        <v>0.2214450722191184</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3459594050497417</v>
+        <v>0.3514462553546133</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>127</v>
@@ -2009,19 +2009,19 @@
         <v>124290</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>106010</v>
+        <v>105996</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>142368</v>
+        <v>141793</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3024254814355227</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2579469103870218</v>
+        <v>0.2579138508703257</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.346414855770907</v>
+        <v>0.3450141061900114</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>111910</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98494</v>
+        <v>98335</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126084</v>
+        <v>125601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5504465519466122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.484456502116728</v>
+        <v>0.4836738332574642</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6201629520963859</v>
+        <v>0.6177882839733566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -2059,19 +2059,19 @@
         <v>85484</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72296</v>
+        <v>70556</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>100645</v>
+        <v>101004</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4116361433080009</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3481319613189151</v>
+        <v>0.3397525357032174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4846442086389062</v>
+        <v>0.4863746871725075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>192</v>
@@ -2080,19 +2080,19 @@
         <v>197394</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176866</v>
+        <v>178929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218161</v>
+        <v>216919</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4803050431606804</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4303566973014123</v>
+        <v>0.4353749940128834</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5308372547605217</v>
+        <v>0.5278152656185753</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>49753</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38474</v>
+        <v>37605</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62668</v>
+        <v>64003</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1837172217111966</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1420683845554394</v>
+        <v>0.1388620621708347</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2314094940145948</v>
+        <v>0.2363378530677592</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -2205,19 +2205,19 @@
         <v>99138</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85310</v>
+        <v>82895</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116268</v>
+        <v>114589</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3564269734395713</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3067134030654753</v>
+        <v>0.2980287992921784</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4180135144415119</v>
+        <v>0.4119764813451265</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -2226,19 +2226,19 @@
         <v>148891</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>129982</v>
+        <v>129519</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>170479</v>
+        <v>169494</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2712256346683974</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.23678162997604</v>
+        <v>0.2359380371990654</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3105523027867118</v>
+        <v>0.3087575281295253</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>65267</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52924</v>
+        <v>52588</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81233</v>
+        <v>80644</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2410053638715074</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.195426041821549</v>
+        <v>0.1941875149043207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2999611301061795</v>
+        <v>0.2977888463660627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -2276,19 +2276,19 @@
         <v>66208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52733</v>
+        <v>52900</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80714</v>
+        <v>80629</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2380354556109942</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1895896597710801</v>
+        <v>0.1901888526081066</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2901896024309973</v>
+        <v>0.2898813210574683</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -2297,19 +2297,19 @@
         <v>131475</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111020</v>
+        <v>112098</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150127</v>
+        <v>152215</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2395005735750409</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2022391979203685</v>
+        <v>0.2042016761314139</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2734779835202101</v>
+        <v>0.277281939600228</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>155791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140690</v>
+        <v>137537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172546</v>
+        <v>170229</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.575277414417296</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5195127205669141</v>
+        <v>0.5078693570879685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6371470739841198</v>
+        <v>0.6285893516551599</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -2347,19 +2347,19 @@
         <v>112798</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97439</v>
+        <v>95054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>129038</v>
+        <v>128581</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4055375709494345</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3503201140570942</v>
+        <v>0.3417442229233634</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4639254345349619</v>
+        <v>0.462280904289555</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>259</v>
@@ -2368,19 +2368,19 @@
         <v>268589</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>244713</v>
+        <v>245082</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>292006</v>
+        <v>292182</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4892737917565617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4457801835234962</v>
+        <v>0.4464523037713264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.531931452199066</v>
+        <v>0.5322521862443963</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>118933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100345</v>
+        <v>101647</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>139861</v>
+        <v>141132</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1933777187212412</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1631558499119119</v>
+        <v>0.1652725519615281</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2274070632149295</v>
+        <v>0.2294734765096058</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>190</v>
@@ -2493,19 +2493,19 @@
         <v>190123</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>168478</v>
+        <v>169614</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>212744</v>
+        <v>215075</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2978967014209365</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.263981189694049</v>
+        <v>0.2657607142890317</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.333339490116264</v>
+        <v>0.3369924533353057</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>314</v>
@@ -2514,19 +2514,19 @@
         <v>309056</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>281166</v>
+        <v>279214</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>340667</v>
+        <v>341546</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2466043018335913</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.224350049991339</v>
+        <v>0.2227928079653306</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2718281061873681</v>
+        <v>0.2725290230752282</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>113690</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>95687</v>
+        <v>95285</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>134492</v>
+        <v>133820</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1848535317884</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1555817561255103</v>
+        <v>0.1549284186808051</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2186767895477264</v>
+        <v>0.2175832018817476</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>131</v>
@@ -2564,19 +2564,19 @@
         <v>137041</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118572</v>
+        <v>116646</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160577</v>
+        <v>158855</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.214723608244927</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1857861808295956</v>
+        <v>0.1827675366931291</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2516018387051548</v>
+        <v>0.2489041869452206</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>242</v>
@@ -2585,19 +2585,19 @@
         <v>250731</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>222123</v>
+        <v>221368</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>280141</v>
+        <v>279704</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2000649514369594</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1772378482413961</v>
+        <v>0.1766360490429813</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2235320592273163</v>
+        <v>0.2231834211855376</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>382405</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>356861</v>
+        <v>358149</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>404455</v>
+        <v>405712</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6217687494903588</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5802370819989663</v>
+        <v>0.5823299836491855</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6576219464216457</v>
+        <v>0.6596645370128122</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>300</v>
@@ -2635,19 +2635,19 @@
         <v>311055</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>284866</v>
+        <v>286643</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>335931</v>
+        <v>335626</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4873796903341364</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4463453188099979</v>
+        <v>0.4491302151940121</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.526357364919379</v>
+        <v>0.5258782920301492</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>663</v>
@@ -2656,19 +2656,19 @@
         <v>693460</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>657986</v>
+        <v>657164</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>726865</v>
+        <v>730073</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5533307467294493</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.525025149179616</v>
+        <v>0.5243692106944553</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5799859924728497</v>
+        <v>0.5825453233555857</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>186860</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>163895</v>
+        <v>164348</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>213475</v>
+        <v>212623</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2512251520049562</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.220349541047945</v>
+        <v>0.2209583122603676</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2870077939382403</v>
+        <v>0.2858624484670181</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>273</v>
@@ -2781,19 +2781,19 @@
         <v>291624</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>262511</v>
+        <v>265006</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>318484</v>
+        <v>316747</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3722010801731959</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3350449017645172</v>
+        <v>0.3382291139446174</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4064827452668393</v>
+        <v>0.4042661122586748</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>466</v>
@@ -2802,19 +2802,19 @@
         <v>478484</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>445126</v>
+        <v>442798</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>514951</v>
+        <v>515987</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3132860408231127</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2914450327189225</v>
+        <v>0.2899212207212426</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3371629265675128</v>
+        <v>0.3378413588776034</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>170443</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>146691</v>
+        <v>147431</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>194891</v>
+        <v>192391</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2291530737965338</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1972192668301023</v>
+        <v>0.1982140307725278</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2620226362306979</v>
+        <v>0.2586618279489875</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>168</v>
@@ -2852,19 +2852,19 @@
         <v>176148</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>153450</v>
+        <v>154075</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>200152</v>
+        <v>201722</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2248181665811355</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1958488566728278</v>
+        <v>0.1966465289766532</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2554552503737336</v>
+        <v>0.2574595473155011</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>334</v>
@@ -2873,19 +2873,19 @@
         <v>346590</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>315849</v>
+        <v>314669</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>379696</v>
+        <v>377094</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.226929257878728</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2068014151768926</v>
+        <v>0.2060289947803839</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2486048409134817</v>
+        <v>0.2469016210435461</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>386492</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>359146</v>
+        <v>358380</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>417058</v>
+        <v>413828</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.51962177419851</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4828562065099489</v>
+        <v>0.4818265788578474</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5607162445092766</v>
+        <v>0.5563743259611023</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>304</v>
@@ -2923,19 +2923,19 @@
         <v>315740</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>287993</v>
+        <v>289568</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>344307</v>
+        <v>343645</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4029807532456686</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.367567057640832</v>
+        <v>0.3695772375439212</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4394411364142753</v>
+        <v>0.4385968495549335</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>681</v>
@@ -2944,19 +2944,19 @@
         <v>702232</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>664600</v>
+        <v>663906</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>744979</v>
+        <v>741377</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4597847012981592</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4351455410488688</v>
+        <v>0.4346907379248427</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4877730282790208</v>
+        <v>0.4854149420682053</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>647983</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1101</v>
@@ -3069,19 +3069,19 @@
         <v>1132361</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1763</v>
@@ -3090,19 +3090,19 @@
         <v>1780344</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>719789</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>677729</v>
+        <v>675377</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>771532</v>
+        <v>770681</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2196794754031551</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2068427398874251</v>
+        <v>0.2061248863663024</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.235471419809991</v>
+        <v>0.235211720508165</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>797</v>
@@ -3140,19 +3140,19 @@
         <v>810490</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>758999</v>
+        <v>762241</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>858966</v>
+        <v>857965</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.23984706006182</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2246092389081231</v>
+        <v>0.2255686375098144</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2541923848687889</v>
+        <v>0.2538960515019897</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1511</v>
@@ -3161,19 +3161,19 @@
         <v>1530280</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1463693</v>
+        <v>1467817</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1592058</v>
+        <v>1609058</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2299187938484103</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2199142963853485</v>
+        <v>0.2205340395080071</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2392007587172627</v>
+        <v>0.2417548343497476</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>1908771</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1850614</v>
+        <v>1849816</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1965630</v>
+        <v>1964320</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5825563844263167</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5648070139720753</v>
+        <v>0.5645634071098433</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5999097614345623</v>
+        <v>0.5995099953480203</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1399</v>
@@ -3211,19 +3211,19 @@
         <v>1436346</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1382979</v>
+        <v>1379209</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1496182</v>
+        <v>1489408</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4250553082807167</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4092625705483795</v>
+        <v>0.4081469544820988</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4427626270032043</v>
+        <v>0.4407580462236166</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3237</v>
@@ -3232,19 +3232,19 @@
         <v>3345117</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3263538</v>
+        <v>3261034</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3427508</v>
+        <v>3420931</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5025912472311548</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4903343077575062</v>
+        <v>0.4899580200906325</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5149700962770787</v>
+        <v>0.5139819707932045</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>67518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54629</v>
+        <v>54884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82113</v>
+        <v>83282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2290790464944558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1853474493248623</v>
+        <v>0.186213564692099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2785951753753679</v>
+        <v>0.282562933099439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -3601,19 +3601,19 @@
         <v>118769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101387</v>
+        <v>99913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135961</v>
+        <v>136870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4134778371730271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3529624909677987</v>
+        <v>0.3478318879450861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.473329343575828</v>
+        <v>0.4764918290891579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -3622,19 +3622,19 @@
         <v>186288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165102</v>
+        <v>162596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210981</v>
+        <v>211605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3200913747850261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2836895322995604</v>
+        <v>0.2793827551409314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3625216528089383</v>
+        <v>0.3635926163031323</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>71721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58540</v>
+        <v>55837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88608</v>
+        <v>86867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2433378412261926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.198615454648737</v>
+        <v>0.1894477945580363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3006321011661003</v>
+        <v>0.2947266824336664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -3672,19 +3672,19 @@
         <v>69304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55258</v>
+        <v>54946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85889</v>
+        <v>85224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2412722741058803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1923735251773098</v>
+        <v>0.1912850763740127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2990089115420235</v>
+        <v>0.2966927322133128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -3693,19 +3693,19 @@
         <v>141025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122238</v>
+        <v>119811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165208</v>
+        <v>162596</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2423183547525109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2100370483501244</v>
+        <v>0.2058662098367374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2838710659942822</v>
+        <v>0.2793825198900977</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>155499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>137121</v>
+        <v>138763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>171375</v>
+        <v>172581</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5275831122793515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4652291941291992</v>
+        <v>0.4708015726083716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5814475248187759</v>
+        <v>0.5855391896767054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>89</v>
@@ -3743,19 +3743,19 @@
         <v>99171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>80715</v>
+        <v>80866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>116851</v>
+        <v>116932</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3452498887210926</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2809972796355832</v>
+        <v>0.2815239115839789</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4067995108242566</v>
+        <v>0.4070822911491897</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>237</v>
@@ -3764,19 +3764,19 @@
         <v>254670</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>230718</v>
+        <v>229166</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>280295</v>
+        <v>279392</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.437590270462463</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3964342274861683</v>
+        <v>0.3937676041441109</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4816209718617943</v>
+        <v>0.4800693181581501</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>105314</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87072</v>
+        <v>86994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127850</v>
+        <v>128009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2083248291526704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.172239840825211</v>
+        <v>0.1720857181915991</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.252904955063898</v>
+        <v>0.2532183768306465</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -3889,19 +3889,19 @@
         <v>181939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161398</v>
+        <v>161102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>206776</v>
+        <v>205863</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3473683365991396</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3081487639763583</v>
+        <v>0.3075841380069378</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3947886108734184</v>
+        <v>0.3930454853781515</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>255</v>
@@ -3910,19 +3910,19 @@
         <v>287253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>256166</v>
+        <v>258736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>315436</v>
+        <v>321078</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2790784197727906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2488758515459576</v>
+        <v>0.251373245442811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.306458736366065</v>
+        <v>0.3119407031963469</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>98279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80959</v>
+        <v>80577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>117106</v>
+        <v>118391</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1944096231093184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1601473279397186</v>
+        <v>0.1593927804697814</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.231650959948791</v>
+        <v>0.2341928478109937</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>121</v>
@@ -3960,19 +3960,19 @@
         <v>131172</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113290</v>
+        <v>110615</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151828</v>
+        <v>153005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2504414481094542</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2162998912545813</v>
+        <v>0.2111923523591229</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2898779187903177</v>
+        <v>0.2921249909085589</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>212</v>
@@ -3981,19 +3981,19 @@
         <v>229452</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>201830</v>
+        <v>202205</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>256792</v>
+        <v>257643</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2229219418832397</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1960859541336104</v>
+        <v>0.1964506536884247</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2494840827420669</v>
+        <v>0.2503109341706751</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>301934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>278877</v>
+        <v>279613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>324898</v>
+        <v>325551</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5972655477380111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5516555904478513</v>
+        <v>0.5531115033928773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6426921370894142</v>
+        <v>0.6439841683066398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -4031,19 +4031,19 @@
         <v>210653</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187554</v>
+        <v>186140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>234615</v>
+        <v>232746</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4021902152914062</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3580885898882928</v>
+        <v>0.3553885888626073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.44793986851062</v>
+        <v>0.4443717499058342</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>485</v>
@@ -4052,19 +4052,19 @@
         <v>512587</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>480085</v>
+        <v>480116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>548301</v>
+        <v>545355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4979996383439698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4664220660621221</v>
+        <v>0.4664528831048531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5326967668235894</v>
+        <v>0.5298353526820954</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>90667</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76218</v>
+        <v>75170</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109355</v>
+        <v>107638</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2797965538909245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2352064988414732</v>
+        <v>0.2319722103558878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.337468122166676</v>
+        <v>0.3321689427752461</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -4177,19 +4177,19 @@
         <v>124119</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>106285</v>
+        <v>107144</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>142137</v>
+        <v>143217</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3639635773268314</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3116665003072353</v>
+        <v>0.3141864300359595</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4167987804600734</v>
+        <v>0.4199656668199455</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>200</v>
@@ -4198,19 +4198,19 @@
         <v>214786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>191921</v>
+        <v>191040</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>239060</v>
+        <v>239482</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3229541331885493</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2885745350879236</v>
+        <v>0.2872489638665739</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3594523565277094</v>
+        <v>0.3600877476211679</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>53639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41010</v>
+        <v>41671</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66549</v>
+        <v>66871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1655288785995147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1265574429553788</v>
+        <v>0.1285946990245747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.205368634287967</v>
+        <v>0.2063615985657828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -4248,19 +4248,19 @@
         <v>78733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63661</v>
+        <v>63063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96126</v>
+        <v>95707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2308753024858971</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1866776464550832</v>
+        <v>0.1849259979222468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2818765955983937</v>
+        <v>0.2806506649714616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -4269,19 +4269,19 @@
         <v>132372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111153</v>
+        <v>112716</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152637</v>
+        <v>153996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.199035985724912</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1671307145444439</v>
+        <v>0.1694813196835487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2295067107830184</v>
+        <v>0.2315493461283079</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>179740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162650</v>
+        <v>161109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198371</v>
+        <v>196673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5546745675095608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5019359395703714</v>
+        <v>0.4971781984195575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6121679996330353</v>
+        <v>0.6069281851341987</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -4319,19 +4319,19 @@
         <v>138168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120738</v>
+        <v>118852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157900</v>
+        <v>156795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4051611201872716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3540490322246558</v>
+        <v>0.3485205426061321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4630227573904452</v>
+        <v>0.4597827344802027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>309</v>
@@ -4340,19 +4340,19 @@
         <v>317908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>293205</v>
+        <v>292239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>342412</v>
+        <v>343272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4780098810865387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4408661861019895</v>
+        <v>0.4394131156280294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5148538586841886</v>
+        <v>0.5161465313781607</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>88711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71022</v>
+        <v>72437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106101</v>
+        <v>106032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2372069032021727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1899076443965328</v>
+        <v>0.1936913510265771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2837057494579454</v>
+        <v>0.283522452719672</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -4465,19 +4465,19 @@
         <v>171912</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>153814</v>
+        <v>150513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>192934</v>
+        <v>191284</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4419897183354707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3954574520362003</v>
+        <v>0.3869704135856979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4960358610469878</v>
+        <v>0.4917946964102161</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>246</v>
@@ -4486,19 +4486,19 @@
         <v>260623</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232087</v>
+        <v>233940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287805</v>
+        <v>288017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3416072480787984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3042037673876438</v>
+        <v>0.3066320021176782</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3772346005421905</v>
+        <v>0.3775124366663677</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>81811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66328</v>
+        <v>65617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100026</v>
+        <v>99344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2187567984315129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1773566901768115</v>
+        <v>0.1754547999190035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2674618868884682</v>
+        <v>0.2656379808270626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -4536,19 +4536,19 @@
         <v>67006</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53276</v>
+        <v>52954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82190</v>
+        <v>84191</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1722734755954309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.13697242022748</v>
+        <v>0.1361457523585224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2113122907036229</v>
+        <v>0.2164566051701384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -4557,19 +4557,19 @@
         <v>148817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>127091</v>
+        <v>126533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>173232</v>
+        <v>173256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1950591315548287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.16658179353702</v>
+        <v>0.1658500935810653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2270601158961179</v>
+        <v>0.2270919762982456</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>203460</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>183197</v>
+        <v>184507</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>223970</v>
+        <v>223315</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5440362983663143</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4898559339415372</v>
+        <v>0.4933573606599586</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5988792893481533</v>
+        <v>0.5971270611768817</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>144</v>
@@ -4607,19 +4607,19 @@
         <v>150033</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>131189</v>
+        <v>131974</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>170448</v>
+        <v>170230</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3857368060690984</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3372902295549859</v>
+        <v>0.3393068076527491</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4382254956706182</v>
+        <v>0.4376639574293252</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>334</v>
@@ -4628,19 +4628,19 @@
         <v>353493</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>325332</v>
+        <v>326046</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>382185</v>
+        <v>383286</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4633336203663728</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4264222141611744</v>
+        <v>0.4273580788783349</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5009417106959384</v>
+        <v>0.5023847468195822</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>59701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45751</v>
+        <v>46974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73744</v>
+        <v>74446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2807903377302403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2151793532194108</v>
+        <v>0.2209324222634621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3468364162761272</v>
+        <v>0.3501415508178485</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>124</v>
@@ -4753,19 +4753,19 @@
         <v>130021</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>115635</v>
+        <v>114314</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>144082</v>
+        <v>142728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5921030471159773</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5265931782038555</v>
+        <v>0.5205761183715925</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6561386098991808</v>
+        <v>0.6499738193663358</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -4774,19 +4774,19 @@
         <v>189722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>169122</v>
+        <v>169719</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>210739</v>
+        <v>212089</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4389579440048409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3912975130174637</v>
+        <v>0.3926771854269865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4875855585253962</v>
+        <v>0.4907101757375204</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>33518</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23571</v>
+        <v>23987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44494</v>
+        <v>45422</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1576428078314389</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1108612307226553</v>
+        <v>0.1128160325030848</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2092661789436335</v>
+        <v>0.2136315002714853</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -4824,19 +4824,19 @@
         <v>35794</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26251</v>
+        <v>26197</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46501</v>
+        <v>47989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1630021583568982</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1195461372217195</v>
+        <v>0.1192975790003935</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2117609753521182</v>
+        <v>0.2185399999093916</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>68</v>
@@ -4845,19 +4845,19 @@
         <v>69312</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55087</v>
+        <v>53884</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84559</v>
+        <v>85069</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1603657151148293</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1274537834506839</v>
+        <v>0.1246720983464529</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1956447697515324</v>
+        <v>0.1968246423709269</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>119399</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104095</v>
+        <v>104420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134709</v>
+        <v>134532</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5615668544383209</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.489585152719646</v>
+        <v>0.4911143170033345</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6335735770280446</v>
+        <v>0.6327413624920972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -4895,19 +4895,19 @@
         <v>53777</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41614</v>
+        <v>42790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67569</v>
+        <v>67701</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2448947945271245</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1895055060077726</v>
+        <v>0.1948642521262306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3077047506422467</v>
+        <v>0.3083046461056467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>162</v>
@@ -4916,19 +4916,19 @@
         <v>173176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153535</v>
+        <v>153009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>194598</v>
+        <v>194325</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4006763408803297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.355233684393188</v>
+        <v>0.3540156716839911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4502415280420318</v>
+        <v>0.4496082976505201</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>89987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>73453</v>
+        <v>74675</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105632</v>
+        <v>107313</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3284408023578856</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2680950129344964</v>
+        <v>0.2725553481349389</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3855465034194832</v>
+        <v>0.391679491492784</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>126</v>
@@ -5041,19 +5041,19 @@
         <v>128525</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>113019</v>
+        <v>112168</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145171</v>
+        <v>144437</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4589655230385511</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4035957980624815</v>
+        <v>0.4005564516033233</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5184119469895728</v>
+        <v>0.5157904431260746</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>212</v>
@@ -5062,19 +5062,19 @@
         <v>218511</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>196243</v>
+        <v>194885</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>244813</v>
+        <v>241818</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3944158492845918</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3542224035801715</v>
+        <v>0.3517705225571892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4418914638613585</v>
+        <v>0.4364858906284032</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>53223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41420</v>
+        <v>40407</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69858</v>
+        <v>66958</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1942571360075243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1511782424528371</v>
+        <v>0.1474825874843225</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2549728087781552</v>
+        <v>0.2443898354400786</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -5112,19 +5112,19 @@
         <v>66965</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52890</v>
+        <v>53706</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83007</v>
+        <v>83941</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2391351574756762</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1888717777905539</v>
+        <v>0.1917860874953269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.296419619121443</v>
+        <v>0.2997553784377598</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -5133,19 +5133,19 @@
         <v>120188</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100653</v>
+        <v>102244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142344</v>
+        <v>142787</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2169411881694351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1816800871489197</v>
+        <v>0.1845528063704535</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2569333356211061</v>
+        <v>0.2577327129605614</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>130772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114410</v>
+        <v>113178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>148580</v>
+        <v>148404</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.47730206163459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4175853000475763</v>
+        <v>0.4130859181176456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5423012788656051</v>
+        <v>0.5416563284785904</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -5183,19 +5183,19 @@
         <v>84541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>69385</v>
+        <v>69940</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>99938</v>
+        <v>100187</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3018993194857727</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2477763041071587</v>
+        <v>0.249759618305045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3568816675166345</v>
+        <v>0.3577714061049</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -5204,19 +5204,19 @@
         <v>215313</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>189807</v>
+        <v>192929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>236243</v>
+        <v>238927</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.388642962545973</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.342604369086791</v>
+        <v>0.3482398825871788</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4264213978233959</v>
+        <v>0.4312676911091964</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>177391</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>155622</v>
+        <v>154117</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>204192</v>
+        <v>202361</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2676432155239659</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2347992769960748</v>
+        <v>0.2325288346488587</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3080810921064586</v>
+        <v>0.3053182994766598</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>249</v>
@@ -5329,19 +5329,19 @@
         <v>274951</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>249984</v>
+        <v>245922</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>301225</v>
+        <v>302122</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3962676461644473</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3602839549067262</v>
+        <v>0.3544301635461398</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4341342419073431</v>
+        <v>0.435426153894689</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>412</v>
@@ -5350,19 +5350,19 @@
         <v>452342</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>416977</v>
+        <v>420657</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>484989</v>
+        <v>490993</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3334280787644162</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3073596141316776</v>
+        <v>0.3100726878457403</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3574928311429286</v>
+        <v>0.3619177824701217</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>142358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>121635</v>
+        <v>122781</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>167172</v>
+        <v>168243</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2147866739340562</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1835197413045874</v>
+        <v>0.1852490213381513</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2522247439210589</v>
+        <v>0.2538410062730103</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>141</v>
@@ -5400,19 +5400,19 @@
         <v>152968</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>131598</v>
+        <v>132676</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175780</v>
+        <v>178101</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2204612712748073</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1896621988678363</v>
+        <v>0.1912157515506423</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2533394102552163</v>
+        <v>0.2566835165482037</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>273</v>
@@ -5421,19 +5421,19 @@
         <v>295326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>264445</v>
+        <v>263869</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>327692</v>
+        <v>325846</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2176889422523461</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.194926129656389</v>
+        <v>0.1945014910233037</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2415462830458736</v>
+        <v>0.2401859762892302</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>343039</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>316077</v>
+        <v>315799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>370818</v>
+        <v>369060</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5175701105419779</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4768893090754746</v>
+        <v>0.4764700083291922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5594820434549796</v>
+        <v>0.5568292091426674</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>246</v>
@@ -5471,19 +5471,19 @@
         <v>265934</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>242350</v>
+        <v>238218</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>291611</v>
+        <v>291963</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3832710825607453</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3492815105934164</v>
+        <v>0.34332592000844</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.420278225438641</v>
+        <v>0.420785438285652</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>569</v>
@@ -5492,19 +5492,19 @@
         <v>608973</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>572538</v>
+        <v>564996</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>648223</v>
+        <v>643512</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4488829789832377</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4220259346202287</v>
+        <v>0.4164671137538954</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4778149193521131</v>
+        <v>0.4743418147238482</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>153565</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>130306</v>
+        <v>130997</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>176422</v>
+        <v>178401</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1971059800300489</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1672521462587532</v>
+        <v>0.168139266437971</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2264441950365772</v>
+        <v>0.2289837495663025</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>226</v>
@@ -5617,19 +5617,19 @@
         <v>246340</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>220033</v>
+        <v>220557</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>275104</v>
+        <v>273864</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2990100993095028</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2670785006709165</v>
+        <v>0.2677137993586387</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3339241418216053</v>
+        <v>0.3324190654382775</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>365</v>
@@ -5638,19 +5638,19 @@
         <v>399905</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>362546</v>
+        <v>366546</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>439471</v>
+        <v>439642</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2494806317394321</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2261739468756837</v>
+        <v>0.2286695163805424</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2741637744902311</v>
+        <v>0.2742701153136993</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>136808</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>113148</v>
+        <v>114655</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>161439</v>
+        <v>159886</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1755973182603663</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1452300805881648</v>
+        <v>0.1471635342008354</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2072131066915179</v>
+        <v>0.2052197578707627</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>142</v>
@@ -5688,19 +5688,19 @@
         <v>153746</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>131006</v>
+        <v>133555</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>176937</v>
+        <v>177945</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1866183933221931</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1590163540743079</v>
+        <v>0.1621096643625393</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2147675174322575</v>
+        <v>0.2159911114078766</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>262</v>
@@ -5709,19 +5709,19 @@
         <v>290554</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>255879</v>
+        <v>259389</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>324631</v>
+        <v>321149</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1812617111417101</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1596300454119592</v>
+        <v>0.1618197680071654</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2025210843264767</v>
+        <v>0.2003485558445212</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>488726</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>460197</v>
+        <v>459632</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>518790</v>
+        <v>517210</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6272967017095847</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5906786059590424</v>
+        <v>0.5899539567957801</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6658851514264158</v>
+        <v>0.6638579396071946</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>389</v>
@@ -5759,19 +5759,19 @@
         <v>423767</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>395957</v>
+        <v>391546</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>452618</v>
+        <v>452565</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5143715073683041</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4806164363934043</v>
+        <v>0.475262384687105</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5493922287742611</v>
+        <v>0.549326994330487</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>847</v>
@@ -5780,19 +5780,19 @@
         <v>912492</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>872221</v>
+        <v>870707</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>953126</v>
+        <v>954467</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5692576571188578</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5441346711588273</v>
+        <v>0.5431902826039341</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5946068752870726</v>
+        <v>0.5954434421231511</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>832854</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2430427006172313</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1279</v>
@@ -5905,19 +5905,19 @@
         <v>1376577</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.386862680234676</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2040</v>
@@ -5926,19 +5926,19 @@
         <v>2209431</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3163067660577515</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>671357</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>621480</v>
+        <v>625857</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>718826</v>
+        <v>724080</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1959147363385039</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1813597335128389</v>
+        <v>0.1826370165301551</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2097672986666356</v>
+        <v>0.2113005798266193</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>696</v>
@@ -5976,19 +5976,19 @@
         <v>755689</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>706429</v>
+        <v>710365</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>804340</v>
+        <v>805711</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2123729720179417</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1985293449025178</v>
+        <v>0.199635623940608</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2260455767749137</v>
+        <v>0.226430733889296</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1317</v>
@@ -5997,19 +5997,19 @@
         <v>1427045</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1357446</v>
+        <v>1357494</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1494745</v>
+        <v>1502710</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2042988096714386</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1943348407048341</v>
+        <v>0.1943417813953645</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2139908976564193</v>
+        <v>0.2151311624190728</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>1922569</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1865095</v>
+        <v>1864252</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1982633</v>
+        <v>1984225</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5610425630442648</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.544270453246662</v>
+        <v>0.5440246235678577</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5785703552775774</v>
+        <v>0.5790350710727787</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1323</v>
@@ -6047,19 +6047,19 @@
         <v>1426043</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1368416</v>
+        <v>1363694</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1485935</v>
+        <v>1482765</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4007643477473823</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3845691460531789</v>
+        <v>0.3832421408195164</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4175957154338468</v>
+        <v>0.4167050248958768</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3150</v>
@@ -6068,19 +6068,19 @@
         <v>3348612</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3271999</v>
+        <v>3263147</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3449609</v>
+        <v>3436721</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4793944242708099</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4684262855805427</v>
+        <v>0.467159058686203</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4938533088992046</v>
+        <v>0.4920082319847597</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>72497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58190</v>
+        <v>58450</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87889</v>
+        <v>88731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2467892390516027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980862855339187</v>
+        <v>0.198969618180507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2991859711231581</v>
+        <v>0.3020508347563337</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -6437,19 +6437,19 @@
         <v>120089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102271</v>
+        <v>104514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137056</v>
+        <v>136851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4159618325929351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3542426489793263</v>
+        <v>0.3620138259420813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4747292143760993</v>
+        <v>0.4740203532475532</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -6458,19 +6458,19 @@
         <v>192586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171254</v>
+        <v>168340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>219507</v>
+        <v>216249</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.330641005326045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2940171435942084</v>
+        <v>0.2890134158730105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.376860173031178</v>
+        <v>0.3712665787264214</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>71069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56710</v>
+        <v>56321</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88173</v>
+        <v>86916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2419270615995714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1930465609215668</v>
+        <v>0.1917249806158232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3001537414066899</v>
+        <v>0.2958730660623399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -6508,19 +6508,19 @@
         <v>57450</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44889</v>
+        <v>44554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73291</v>
+        <v>72970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.198993744870986</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1554862946734032</v>
+        <v>0.1543252789932345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2538646519401323</v>
+        <v>0.2527526323313416</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -6529,19 +6529,19 @@
         <v>128519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108826</v>
+        <v>109999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150467</v>
+        <v>150151</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2206468154063109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1868381101572727</v>
+        <v>0.1888518556519651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2583288292496758</v>
+        <v>0.2577857445978975</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>150195</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132942</v>
+        <v>131953</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>169947</v>
+        <v>167478</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5112836993488259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4525500300738451</v>
+        <v>0.4491848260138783</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5785214905306445</v>
+        <v>0.5701151551315409</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -6579,19 +6579,19 @@
         <v>111163</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94179</v>
+        <v>95218</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127765</v>
+        <v>127917</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3850444225360789</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.326214677483024</v>
+        <v>0.3298132952065266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4425474551545848</v>
+        <v>0.443074335100518</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>242</v>
@@ -6600,19 +6600,19 @@
         <v>261359</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>236760</v>
+        <v>238701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288431</v>
+        <v>285372</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4487121792676441</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4064805010669492</v>
+        <v>0.4098121155190187</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4951912922092976</v>
+        <v>0.489939386949624</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>109496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91878</v>
+        <v>92596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129856</v>
+        <v>129318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2178690418880978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1828145886052847</v>
+        <v>0.1842438632033138</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2583811055710426</v>
+        <v>0.2573113648864701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -6725,19 +6725,19 @@
         <v>184649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>164912</v>
+        <v>163341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>208305</v>
+        <v>206648</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3530006098598519</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3152694639339859</v>
+        <v>0.3122662809709099</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.398225263066993</v>
+        <v>0.395057712719651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>273</v>
@@ -6746,19 +6746,19 @@
         <v>294144</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264283</v>
+        <v>265985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>324416</v>
+        <v>324838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.286785841901306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.257671519545319</v>
+        <v>0.2593310650158087</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3163000508038932</v>
+        <v>0.3167119701343277</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>103202</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>85703</v>
+        <v>82994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122679</v>
+        <v>121573</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2053460963287233</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.170526886928429</v>
+        <v>0.1651384292889371</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2441017611608755</v>
+        <v>0.2418999633690782</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -6796,19 +6796,19 @@
         <v>118927</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>99981</v>
+        <v>100657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>138532</v>
+        <v>138841</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2273577583654822</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1911366477054402</v>
+        <v>0.1924290111943472</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2648361482802998</v>
+        <v>0.2654285785355973</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>203</v>
@@ -6817,19 +6817,19 @@
         <v>222129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>194808</v>
+        <v>191472</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>251178</v>
+        <v>246847</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2165719951569137</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1899347727318403</v>
+        <v>0.1866817076905232</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.244894380989028</v>
+        <v>0.2406720849017066</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>289878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>267998</v>
+        <v>268108</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>311606</v>
+        <v>313038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5767848617831789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5332502824757966</v>
+        <v>0.533469545156729</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6200182223670895</v>
+        <v>0.6228684505196513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -6867,19 +6867,19 @@
         <v>219508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196525</v>
+        <v>197944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240746</v>
+        <v>241691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4196416317746659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3757051358695952</v>
+        <v>0.3784169693406931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4602429940504859</v>
+        <v>0.4620503303298329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>483</v>
@@ -6888,19 +6888,19 @@
         <v>509386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>475449</v>
+        <v>478166</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>542010</v>
+        <v>542272</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4966421629417803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.463555101674131</v>
+        <v>0.4662039732145636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.528450590490033</v>
+        <v>0.5287060947410345</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>60809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47536</v>
+        <v>48751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75263</v>
+        <v>74648</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1908845062527285</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1492185268759481</v>
+        <v>0.1530321447335091</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2362552219131541</v>
+        <v>0.2343264288443312</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -7013,19 +7013,19 @@
         <v>107569</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91459</v>
+        <v>90908</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>126370</v>
+        <v>124164</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3198509394771462</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2719478526812554</v>
+        <v>0.2703096210359245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.375754796520911</v>
+        <v>0.3691971681497515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -7034,19 +7034,19 @@
         <v>168378</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147302</v>
+        <v>145823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192593</v>
+        <v>189541</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2571149146599854</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2249313929390132</v>
+        <v>0.2226728467401577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2940918657872648</v>
+        <v>0.2894311824767893</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>79268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64962</v>
+        <v>64240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94484</v>
+        <v>95033</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2488298486151286</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2039199823890993</v>
+        <v>0.2016546522429955</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2965924369487297</v>
+        <v>0.2983167115553425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -7084,19 +7084,19 @@
         <v>79923</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65551</v>
+        <v>63973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96877</v>
+        <v>96232</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2376474069145631</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1949125657816874</v>
+        <v>0.190220413743488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2880591640508257</v>
+        <v>0.2861401392016888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -7105,19 +7105,19 @@
         <v>159191</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138103</v>
+        <v>138206</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182252</v>
+        <v>182522</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2430871319849026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.210884300310432</v>
+        <v>0.2110418412217754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2783006131741123</v>
+        <v>0.2787131791069283</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>178487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162104</v>
+        <v>161912</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196319</v>
+        <v>196116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5602856451321429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5088557087965407</v>
+        <v>0.5082553608888764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6162614334709575</v>
+        <v>0.6156228477777309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -7155,19 +7155,19 @@
         <v>148817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129690</v>
+        <v>131249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166774</v>
+        <v>167504</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4425016536082907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3856263048212794</v>
+        <v>0.3902630511090711</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4958951905682028</v>
+        <v>0.4980671674137833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>340</v>
@@ -7176,19 +7176,19 @@
         <v>327305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>300261</v>
+        <v>303066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>351041</v>
+        <v>353402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.499797953355112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4585021451475702</v>
+        <v>0.4627857022112007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5360428928368238</v>
+        <v>0.5396482733550435</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>106587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90574</v>
+        <v>88897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126204</v>
+        <v>124125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2881006998065621</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2448188749184224</v>
+        <v>0.2402867029092144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.341125339482579</v>
+        <v>0.3355064430149632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>146</v>
@@ -7301,19 +7301,19 @@
         <v>166458</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145799</v>
+        <v>147968</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185712</v>
+        <v>189223</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4298104967571767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3764669092985049</v>
+        <v>0.3820658806844289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4795242119197972</v>
+        <v>0.4885919381249545</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>253</v>
@@ -7322,19 +7322,19 @@
         <v>273045</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246322</v>
+        <v>246232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301011</v>
+        <v>300351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3605761212779953</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3252856382803226</v>
+        <v>0.3251679735823229</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3975074793595574</v>
+        <v>0.396635154243463</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>73653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58822</v>
+        <v>59617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90853</v>
+        <v>90210</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1990816746971105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.158993348001834</v>
+        <v>0.161141544070667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2455715138192454</v>
+        <v>0.2438333303981036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -7372,19 +7372,19 @@
         <v>74402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59900</v>
+        <v>58506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92847</v>
+        <v>91448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1921134187493665</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1546677610828444</v>
+        <v>0.1510680079151238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2397382561155317</v>
+        <v>0.2361260451774994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>141</v>
@@ -7393,19 +7393,19 @@
         <v>148055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125543</v>
+        <v>127143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171963</v>
+        <v>170891</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1955178612022005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1657890560880732</v>
+        <v>0.1679011176528867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.22709001442946</v>
+        <v>0.2256742666793017</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>189724</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>168528</v>
+        <v>170236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>208027</v>
+        <v>208689</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5128176254963274</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4555248528817529</v>
+        <v>0.4601418911233487</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5622891831137056</v>
+        <v>0.5640781219413206</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>141</v>
@@ -7443,19 +7443,19 @@
         <v>146422</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>128152</v>
+        <v>127482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>167616</v>
+        <v>166001</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3780760844934568</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3309013328069088</v>
+        <v>0.3291690253074895</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4328001466163919</v>
+        <v>0.4286296938867478</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>318</v>
@@ -7464,19 +7464,19 @@
         <v>336147</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>310299</v>
+        <v>309236</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>365079</v>
+        <v>363405</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4439060175198042</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4097730746525926</v>
+        <v>0.4083688746190061</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4821137277268544</v>
+        <v>0.4799029966893448</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>48532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37618</v>
+        <v>37772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62553</v>
+        <v>62381</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2297686661576292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1780994498944617</v>
+        <v>0.1788281500677561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2961486714743016</v>
+        <v>0.2953374719802038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -7589,19 +7589,19 @@
         <v>88235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74224</v>
+        <v>73684</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103245</v>
+        <v>101831</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4036615735819903</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3395641608465765</v>
+        <v>0.3370910144047198</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4723282830987445</v>
+        <v>0.4658612976416381</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -7610,19 +7610,19 @@
         <v>136767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>117766</v>
+        <v>119376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155718</v>
+        <v>157705</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3182051985375679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2739965057676636</v>
+        <v>0.2777428482538288</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3622971439461557</v>
+        <v>0.3669196676468875</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>44609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34210</v>
+        <v>33803</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>57356</v>
+        <v>56715</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2111955987657028</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1619635500899472</v>
+        <v>0.1600375777937953</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2715436986111169</v>
+        <v>0.2685095980310538</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -7660,19 +7660,19 @@
         <v>42918</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32319</v>
+        <v>31996</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54073</v>
+        <v>53784</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1963444428430466</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1478544116649492</v>
+        <v>0.1463786553611835</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2473773823808916</v>
+        <v>0.246055334098921</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>90</v>
@@ -7681,19 +7681,19 @@
         <v>87527</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>72038</v>
+        <v>72021</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102923</v>
+        <v>104133</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2036427620739315</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.167605885772351</v>
+        <v>0.167564468312622</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2394619889332031</v>
+        <v>0.2422770872468384</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>118080</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103601</v>
+        <v>103632</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131655</v>
+        <v>132087</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.559035735076668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4904856776547294</v>
+        <v>0.4906317937235874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6233043756302011</v>
+        <v>0.625350897870766</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -7731,19 +7731,19 @@
         <v>87433</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73501</v>
+        <v>74033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102366</v>
+        <v>100121</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3999939835749631</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3362572274687808</v>
+        <v>0.3386904645772588</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4683091701426266</v>
+        <v>0.4580383374029343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>210</v>
@@ -7752,19 +7752,19 @@
         <v>205514</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>186108</v>
+        <v>185597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224816</v>
+        <v>227158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4781520393885006</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4330017267110338</v>
+        <v>0.4318140839797295</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5230614811692863</v>
+        <v>0.5285097583802453</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>62993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>49101</v>
+        <v>50205</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79109</v>
+        <v>77357</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2394038541718011</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1866071141011166</v>
+        <v>0.1908053074293849</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3006554393932613</v>
+        <v>0.2939949549753921</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>85</v>
@@ -7877,19 +7877,19 @@
         <v>94553</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>79883</v>
+        <v>79913</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>111027</v>
+        <v>111599</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3462032811416638</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2924901556270998</v>
+        <v>0.292597407761488</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4065218400720862</v>
+        <v>0.4086151252552864</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>150</v>
@@ -7898,19 +7898,19 @@
         <v>157546</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>137256</v>
+        <v>136445</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>178711</v>
+        <v>178643</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2937985922624354</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2559600526263801</v>
+        <v>0.2544486368820294</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3332674014891596</v>
+        <v>0.3331418645873901</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>49296</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37176</v>
+        <v>38496</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63014</v>
+        <v>62574</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1873490988951732</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1412865113279091</v>
+        <v>0.146306021038242</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2394857349049621</v>
+        <v>0.2378121305973404</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -7948,19 +7948,19 @@
         <v>62640</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49215</v>
+        <v>49477</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76040</v>
+        <v>77597</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2293548292535361</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1802005024704186</v>
+        <v>0.1811575866942899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.278417926817868</v>
+        <v>0.2841186658146544</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -7969,19 +7969,19 @@
         <v>111936</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94152</v>
+        <v>94531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130274</v>
+        <v>133263</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2087433213734803</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1755786881296298</v>
+        <v>0.1762849752699788</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2429401134984827</v>
+        <v>0.2485144447146315</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>150834</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>135007</v>
+        <v>133602</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>166077</v>
+        <v>164850</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5732470469330258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5130927999766358</v>
+        <v>0.5077539065644912</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6311756311755633</v>
+        <v>0.6265117965792033</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -8019,19 +8019,19 @@
         <v>115921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101626</v>
+        <v>99007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133597</v>
+        <v>130370</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4244418896048001</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3720981677730046</v>
+        <v>0.3625106279342111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4891612282194678</v>
+        <v>0.4773432253154717</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>263</v>
@@ -8040,19 +8040,19 @@
         <v>266756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>245066</v>
+        <v>244400</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>289784</v>
+        <v>289579</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4974580863640842</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4570106112252827</v>
+        <v>0.4557684448818997</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5404011619802449</v>
+        <v>0.5400202680051557</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>141953</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>121681</v>
+        <v>122690</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>165367</v>
+        <v>165475</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2162073291563794</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1853323022751412</v>
+        <v>0.1868678327652409</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2518699799938018</v>
+        <v>0.2520346690080031</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>199</v>
@@ -8165,19 +8165,19 @@
         <v>224996</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>201072</v>
+        <v>199822</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>252547</v>
+        <v>250432</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3254709985397868</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2908627494707621</v>
+        <v>0.2890556217527533</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3653254494353362</v>
+        <v>0.3622652630554929</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>329</v>
@@ -8186,19 +8186,19 @@
         <v>366949</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>334560</v>
+        <v>332878</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>403448</v>
+        <v>403875</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2722471015140784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2482174769707541</v>
+        <v>0.2469695907737626</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2993266123300444</v>
+        <v>0.2996433025131358</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>120609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100234</v>
+        <v>101417</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>142730</v>
+        <v>143096</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.183698607382484</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1526652706516017</v>
+        <v>0.1544679782559375</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2173911150142595</v>
+        <v>0.2179489524397288</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>123</v>
@@ -8236,19 +8236,19 @@
         <v>135762</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>114414</v>
+        <v>115212</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160044</v>
+        <v>159953</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1963877758469882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1655066641586821</v>
+        <v>0.1666613062584096</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2315132547345017</v>
+        <v>0.2313821258005387</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>227</v>
@@ -8257,19 +8257,19 @@
         <v>256370</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>225876</v>
+        <v>230181</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>289676</v>
+        <v>291051</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1902067002936241</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1675821384115381</v>
+        <v>0.1707761945672333</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2149171327262137</v>
+        <v>0.2159371196907833</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>393997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>368027</v>
+        <v>368794</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>420095</v>
+        <v>419329</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6000940634611366</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.560539539464491</v>
+        <v>0.5617084062600156</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6398450791155657</v>
+        <v>0.6386774915644952</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>324</v>
@@ -8307,19 +8307,19 @@
         <v>330536</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>302181</v>
+        <v>303470</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>357135</v>
+        <v>356721</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.478141225613225</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4371230378629042</v>
+        <v>0.438988254466959</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5166179551957382</v>
+        <v>0.5160195789510188</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>670</v>
@@ -8328,19 +8328,19 @@
         <v>724533</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>685269</v>
+        <v>685944</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>762841</v>
+        <v>759498</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5375461981922975</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5084157935233341</v>
+        <v>0.5089162748965946</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5659676291372534</v>
+        <v>0.5634874324316673</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>206742</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>181462</v>
+        <v>182595</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>231563</v>
+        <v>232519</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2655366960599278</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2330670142069965</v>
+        <v>0.2345220284833368</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2974157395363237</v>
+        <v>0.2986443200687163</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>247</v>
@@ -8453,19 +8453,19 @@
         <v>293231</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>261497</v>
+        <v>264735</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>321689</v>
+        <v>326477</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3549298533718778</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3165180666375086</v>
+        <v>0.3204371205384186</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3893752014388482</v>
+        <v>0.3951701374483705</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>449</v>
@@ -8474,19 +8474,19 @@
         <v>499974</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>465111</v>
+        <v>463458</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>540146</v>
+        <v>538646</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3115586165029667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2898338415396355</v>
+        <v>0.2888041739194748</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3365917785747887</v>
+        <v>0.3356574197199937</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>139070</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>119032</v>
+        <v>118461</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>160842</v>
+        <v>162864</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1786194045682456</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.15288228105709</v>
+        <v>0.152149377828038</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2065831838841292</v>
+        <v>0.2091794721832738</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>149</v>
@@ -8524,19 +8524,19 @@
         <v>161606</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>138046</v>
+        <v>141702</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>185903</v>
+        <v>186323</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1956094980941802</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1670923179014873</v>
+        <v>0.171517555861535</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2250185070136093</v>
+        <v>0.2255270650625501</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>285</v>
@@ -8545,19 +8545,19 @@
         <v>300676</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>271395</v>
+        <v>268890</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>333173</v>
+        <v>332689</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1873663462367421</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1691199865843372</v>
+        <v>0.1675589103860356</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2076167967045846</v>
+        <v>0.2073152619446797</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>432771</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>405888</v>
+        <v>404481</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>461267</v>
+        <v>460070</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5558438993718265</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5213160543129927</v>
+        <v>0.5195085402192277</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5924438731288163</v>
+        <v>0.5909072183552971</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>359</v>
@@ -8595,19 +8595,19 @@
         <v>371330</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>339510</v>
+        <v>341414</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>403316</v>
+        <v>399000</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.449460648533942</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4109459721389534</v>
+        <v>0.413251105550309</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4881776677552364</v>
+        <v>0.4829527030169375</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>771</v>
@@ -8616,19 +8616,19 @@
         <v>804100</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>763037</v>
+        <v>767432</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>844768</v>
+        <v>850315</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5010750372602912</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4754864739455638</v>
+        <v>0.4782250864397025</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5264172306340563</v>
+        <v>0.5298741072739758</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>809608</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2385164248893366</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1137</v>
@@ -8741,19 +8741,19 @@
         <v>1279781</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3610569180493427</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1934</v>
@@ -8762,19 +8762,19 @@
         <v>2089390</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3011128600502788</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>680776</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>636140</v>
+        <v>638842</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>731460</v>
+        <v>728267</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2005614358251045</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1874115219178664</v>
+        <v>0.1882073976156876</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2154933489821723</v>
+        <v>0.214552746984324</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>691</v>
@@ -8812,19 +8812,19 @@
         <v>733629</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>687941</v>
+        <v>683436</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>789587</v>
+        <v>783714</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2069742466068085</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1940846743220423</v>
+        <v>0.1928137255021315</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.222761361998545</v>
+        <v>0.2211045483020124</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1338</v>
@@ -8833,19 +8833,19 @@
         <v>1414405</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1344745</v>
+        <v>1349831</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1482968</v>
+        <v>1481613</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2038372435515527</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1937982492313011</v>
+        <v>0.1945312668976334</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2137182815857863</v>
+        <v>0.2135229725630691</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>1903966</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1848973</v>
+        <v>1843874</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1962120</v>
+        <v>1958878</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5609221392855589</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.544720845248174</v>
+        <v>0.5432185655089813</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5780547785201235</v>
+        <v>0.5770996281807047</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1510</v>
@@ -8883,19 +8883,19 @@
         <v>1531132</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1472560</v>
+        <v>1467710</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1595105</v>
+        <v>1590636</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4319688353438489</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4154444404269595</v>
+        <v>0.4140761316667176</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4500173626523371</v>
+        <v>0.4487565612796214</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3297</v>
@@ -8904,19 +8904,19 @@
         <v>3435098</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3350824</v>
+        <v>3354427</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3521876</v>
+        <v>3522006</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4950498963981685</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4829048297195595</v>
+        <v>0.4834240453580247</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5075560249126133</v>
+        <v>0.507574749981263</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>87268</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72062</v>
+        <v>74045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102274</v>
+        <v>105306</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2737011012874566</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2260110049781997</v>
+        <v>0.2322279316989836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3207648984529114</v>
+        <v>0.3302728916046968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -9273,19 +9273,19 @@
         <v>103917</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91735</v>
+        <v>91178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117506</v>
+        <v>117357</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3287869481155549</v>
+        <v>0.328786948115555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2902449825697222</v>
+        <v>0.2884836090904478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3717835067907923</v>
+        <v>0.37131258188935</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -9294,19 +9294,19 @@
         <v>191185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>173029</v>
+        <v>172021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211722</v>
+        <v>212513</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3011232240103378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2725264146896192</v>
+        <v>0.2709388932897768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3334690883856439</v>
+        <v>0.3347151205608037</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>81981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66173</v>
+        <v>65687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98225</v>
+        <v>99173</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2571194777268311</v>
+        <v>0.2571194777268312</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2075407891838683</v>
+        <v>0.2060150343526511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3080655755439204</v>
+        <v>0.3110371542435196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -9344,19 +9344,19 @@
         <v>75614</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63307</v>
+        <v>63656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89355</v>
+        <v>91138</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2392389377268417</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2003010120723187</v>
+        <v>0.2014049024053179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2827141566843702</v>
+        <v>0.2883569784695048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>208</v>
@@ -9365,19 +9365,19 @@
         <v>157595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137328</v>
+        <v>136896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179598</v>
+        <v>180481</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2482184189165491</v>
+        <v>0.248218418916549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2162960595594562</v>
+        <v>0.2156161803508695</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2828732108150139</v>
+        <v>0.2842641938143454</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>149596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132561</v>
+        <v>132643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>167651</v>
+        <v>168805</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4691794209857121</v>
+        <v>0.4691794209857123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4157531012890147</v>
+        <v>0.4160101758358225</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.525808096512556</v>
+        <v>0.5294270889559978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>210</v>
@@ -9415,19 +9415,19 @@
         <v>136530</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121098</v>
+        <v>121061</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151375</v>
+        <v>151031</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4319741141576034</v>
+        <v>0.4319741141576033</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3831476614980673</v>
+        <v>0.3830299179211614</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4789433172680954</v>
+        <v>0.4778539463564264</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>354</v>
@@ -9436,19 +9436,19 @@
         <v>286126</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261850</v>
+        <v>259788</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309067</v>
+        <v>307206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4506583570731132</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.412422767544771</v>
+        <v>0.4091761708061242</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4867914600348104</v>
+        <v>0.4838613437844112</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>138156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>116061</v>
+        <v>115874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>162125</v>
+        <v>163760</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2603533084452597</v>
+        <v>0.2603533084452598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2187163202162479</v>
+        <v>0.2183637585364372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3055231929836841</v>
+        <v>0.3086036421906069</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -9561,19 +9561,19 @@
         <v>216973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194872</v>
+        <v>196691</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>238530</v>
+        <v>236145</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3970278907202671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3565852876868082</v>
+        <v>0.3599149110748766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4364725689312943</v>
+        <v>0.4321081722661702</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>431</v>
@@ -9582,19 +9582,19 @@
         <v>355129</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>324445</v>
+        <v>322961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>388435</v>
+        <v>385928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3296960055024167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3012090019988952</v>
+        <v>0.2998315705953105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3606168022536084</v>
+        <v>0.3582892722734136</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>158918</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>135081</v>
+        <v>132590</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>187914</v>
+        <v>183617</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2994799257240456</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2545586124944658</v>
+        <v>0.2498652485464046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3541227011059996</v>
+        <v>0.3460253728545253</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>176</v>
@@ -9632,19 +9632,19 @@
         <v>132906</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>116208</v>
+        <v>114717</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>152378</v>
+        <v>150205</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2431972881589212</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2126421021404291</v>
+        <v>0.2099137896377367</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2788286321773145</v>
+        <v>0.2748520504842841</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>298</v>
@@ -9653,19 +9653,19 @@
         <v>291824</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>262679</v>
+        <v>262130</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>326647</v>
+        <v>322949</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2709245804557993</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2438667038186274</v>
+        <v>0.2433567750867721</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3032539435030559</v>
+        <v>0.2998203452222996</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>233573</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>203101</v>
+        <v>206669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262611</v>
+        <v>263900</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4401667658306946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3827428635279421</v>
+        <v>0.3894656621798624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4948888883017221</v>
+        <v>0.4973170054404489</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -9703,19 +9703,19 @@
         <v>196615</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175010</v>
+        <v>177037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218938</v>
+        <v>219507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3597748211208117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3202417938444662</v>
+        <v>0.3239496238786054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4006235229088661</v>
+        <v>0.4016640465397271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>370</v>
@@ -9724,19 +9724,19 @@
         <v>430188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>390832</v>
+        <v>395761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>467822</v>
+        <v>464422</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.399379414041784</v>
+        <v>0.3993794140417841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3628418855365091</v>
+        <v>0.3674182473933529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4343184936038573</v>
+        <v>0.4311617126652162</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>113388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99015</v>
+        <v>98164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129257</v>
+        <v>129623</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3588321007679031</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3133453500303989</v>
+        <v>0.3106538583662034</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4090494038331263</v>
+        <v>0.410209311576231</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>291</v>
@@ -9849,19 +9849,19 @@
         <v>168565</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>152437</v>
+        <v>153587</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>183000</v>
+        <v>185880</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4729899828243018</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4277363236555624</v>
+        <v>0.4309623297843297</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5134946108807916</v>
+        <v>0.5215758042762937</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>447</v>
@@ -9870,19 +9870,19 @@
         <v>281953</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>262857</v>
+        <v>259981</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>303541</v>
+        <v>302667</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4193396345246901</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3909374143132133</v>
+        <v>0.3866613903934416</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4514463746843386</v>
+        <v>0.4501461302767015</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>70582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57339</v>
+        <v>55989</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86993</v>
+        <v>85196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2233670263569679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1814570534390819</v>
+        <v>0.1771831216355076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2752997396210687</v>
+        <v>0.2696123662787988</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -9920,19 +9920,19 @@
         <v>77844</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64458</v>
+        <v>65613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92494</v>
+        <v>92772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2184300725793286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1808694653431007</v>
+        <v>0.1841089850062695</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2595377459859627</v>
+        <v>0.260317231447889</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -9941,19 +9941,19 @@
         <v>148427</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130207</v>
+        <v>129706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168365</v>
+        <v>168039</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2207502740839306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1936520278710887</v>
+        <v>0.1929067766071328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2504035024911933</v>
+        <v>0.2499184849090523</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>132022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115847</v>
+        <v>114265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150063</v>
+        <v>147933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4178008728751288</v>
+        <v>0.4178008728751289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3666111686896028</v>
+        <v>0.3616069584545476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4748925941058804</v>
+        <v>0.4681515706686498</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>139</v>
@@ -9991,19 +9991,19 @@
         <v>109972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>96085</v>
+        <v>96180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127201</v>
+        <v>126026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3085799445963696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2696139143812734</v>
+        <v>0.2698804497286053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3569231725023742</v>
+        <v>0.3536266050667508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -10012,19 +10012,19 @@
         <v>241995</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218253</v>
+        <v>220241</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>265578</v>
+        <v>265938</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3599100913913794</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3246003483218153</v>
+        <v>0.3275574733831592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3949844842651116</v>
+        <v>0.395520506645486</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>123671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103262</v>
+        <v>102681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146377</v>
+        <v>145923</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3314299581576158</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2767336653748673</v>
+        <v>0.2751773199421705</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.392278144988346</v>
+        <v>0.3910628986860127</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>349</v>
@@ -10137,19 +10137,19 @@
         <v>199328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181317</v>
+        <v>181722</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217886</v>
+        <v>219855</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4723842418903515</v>
+        <v>0.4723842418903516</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4297019418186083</v>
+        <v>0.4306606100834823</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5163641299682801</v>
+        <v>0.5210307053445763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>475</v>
@@ -10158,19 +10158,19 @@
         <v>323000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>293690</v>
+        <v>290490</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>352500</v>
+        <v>353935</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4062340981680715</v>
+        <v>0.4062340981680714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3693717669461815</v>
+        <v>0.3653475014287497</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4433370980068235</v>
+        <v>0.4451407638433236</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>54543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39791</v>
+        <v>40463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73225</v>
+        <v>76048</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1461701390014424</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1066365242582193</v>
+        <v>0.1084387206010468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1962385813723737</v>
+        <v>0.2038027658424283</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -10208,19 +10208,19 @@
         <v>74752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60502</v>
+        <v>61012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91857</v>
+        <v>94754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1771545411953673</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1433833407834091</v>
+        <v>0.1445906989282711</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2176911711487742</v>
+        <v>0.2245574305397212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -10229,19 +10229,19 @@
         <v>129295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109779</v>
+        <v>106978</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154908</v>
+        <v>155485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1626134956591893</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1380676144945042</v>
+        <v>0.1345453863876478</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1948262099323084</v>
+        <v>0.1955526724358706</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>194931</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>171081</v>
+        <v>167182</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>219862</v>
+        <v>220242</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5223999028409417</v>
+        <v>0.5223999028409418</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4584831050664184</v>
+        <v>0.4480357020300136</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5892137747394237</v>
+        <v>0.590231666497237</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>155</v>
@@ -10279,19 +10279,19 @@
         <v>147881</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>130080</v>
+        <v>128494</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>168752</v>
+        <v>170328</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3504612169142812</v>
+        <v>0.3504612169142814</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.308275609722063</v>
+        <v>0.3045172035468477</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3999237505979437</v>
+        <v>0.4036592250632784</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>268</v>
@@ -10300,19 +10300,19 @@
         <v>342812</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>309804</v>
+        <v>309748</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>373311</v>
+        <v>376167</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4311524061727391</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3896380598603074</v>
+        <v>0.38956763417287</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4695099766933563</v>
+        <v>0.473102432424582</v>
       </c>
     </row>
     <row r="19">
@@ -10404,19 +10404,19 @@
         <v>64127</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53672</v>
+        <v>53856</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75387</v>
+        <v>76268</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3118010227352423</v>
+        <v>0.3118010227352422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2609683525977308</v>
+        <v>0.2618613657463152</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3665500786235263</v>
+        <v>0.3708367455159258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>280</v>
@@ -10425,19 +10425,19 @@
         <v>119015</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108034</v>
+        <v>107584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130149</v>
+        <v>130629</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.519902274863031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4719342568726149</v>
+        <v>0.4699655948742504</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5685390513776033</v>
+        <v>0.5706373452476206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>383</v>
@@ -10446,19 +10446,19 @@
         <v>183141</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>167517</v>
+        <v>166817</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199707</v>
+        <v>199149</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4214190079226841</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3854662278995169</v>
+        <v>0.3838566416682558</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4595388213524799</v>
+        <v>0.458254759893565</v>
       </c>
     </row>
     <row r="21">
@@ -10475,19 +10475,19 @@
         <v>39683</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31675</v>
+        <v>31427</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49665</v>
+        <v>49909</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1929489441023031</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1540105704869457</v>
+        <v>0.1528071313542842</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2414841185161296</v>
+        <v>0.2426737060749066</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -10496,19 +10496,19 @@
         <v>38153</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30356</v>
+        <v>31174</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46750</v>
+        <v>46717</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1666665634914068</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1326077089063193</v>
+        <v>0.1361810352506398</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2042222031674776</v>
+        <v>0.2040767000792038</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>142</v>
@@ -10517,19 +10517,19 @@
         <v>77836</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66589</v>
+        <v>66605</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91058</v>
+        <v>91285</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1791046179435792</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1532264389035901</v>
+        <v>0.1532630527351114</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2095302396924292</v>
+        <v>0.2100528871590845</v>
       </c>
     </row>
     <row r="22">
@@ -10546,19 +10546,19 @@
         <v>101856</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89660</v>
+        <v>88472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114252</v>
+        <v>113775</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4952500331624546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4359526454423627</v>
+        <v>0.4301728745029094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5555238712566789</v>
+        <v>0.5532034812644187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -10567,19 +10567,19 @@
         <v>71750</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61465</v>
+        <v>61068</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83122</v>
+        <v>84318</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3134311616455623</v>
+        <v>0.3134311616455624</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2685022257199563</v>
+        <v>0.266766036465087</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.36310605361583</v>
+        <v>0.3683331076227049</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>249</v>
@@ -10588,19 +10588,19 @@
         <v>173605</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156515</v>
+        <v>156245</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191250</v>
+        <v>190466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3994763741337367</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3601503591843979</v>
+        <v>0.3595292123608215</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4400770275952449</v>
+        <v>0.4382737073475813</v>
       </c>
     </row>
     <row r="23">
@@ -10692,19 +10692,19 @@
         <v>115244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>100596</v>
+        <v>99984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>129433</v>
+        <v>129025</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.425716283307011</v>
+        <v>0.4257162833070109</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3716037262333722</v>
+        <v>0.3693440126129383</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4781299165622572</v>
+        <v>0.4766205613812812</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>272</v>
@@ -10713,19 +10713,19 @@
         <v>129910</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116397</v>
+        <v>117534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141350</v>
+        <v>142175</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4925494762490745</v>
+        <v>0.4925494762490743</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4413161120561188</v>
+        <v>0.4456254917751315</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5359255922205139</v>
+        <v>0.5390537527488297</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>470</v>
@@ -10734,19 +10734,19 @@
         <v>245154</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>226420</v>
+        <v>225239</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>264181</v>
+        <v>265325</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.458697917384036</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4236447796554951</v>
+        <v>0.4214350597822155</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4942973816898978</v>
+        <v>0.4964388346835102</v>
       </c>
     </row>
     <row r="25">
@@ -10763,19 +10763,19 @@
         <v>65808</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54310</v>
+        <v>53451</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>79606</v>
+        <v>78462</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.24309527146856</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2006231862960677</v>
+        <v>0.1974503485370329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2940661917774683</v>
+        <v>0.2898412873051849</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -10784,19 +10784,19 @@
         <v>53443</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42365</v>
+        <v>42716</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64938</v>
+        <v>65284</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2026287237066989</v>
+        <v>0.2026287237066988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1606244377458292</v>
+        <v>0.1619560029610185</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2462103927532525</v>
+        <v>0.2475216646131333</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>160</v>
@@ -10805,19 +10805,19 @@
         <v>119251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>102640</v>
+        <v>103282</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138351</v>
+        <v>138590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.223125361130756</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1920457461506675</v>
+        <v>0.1932471215874957</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2588621907857745</v>
+        <v>0.2593101342736578</v>
       </c>
     </row>
     <row r="26">
@@ -10834,19 +10834,19 @@
         <v>89655</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75632</v>
+        <v>74916</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104699</v>
+        <v>104964</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3311884452244291</v>
+        <v>0.331188445224429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2793864308883686</v>
+        <v>0.2767432535461695</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3867595722648062</v>
+        <v>0.3877403754557245</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>108</v>
@@ -10855,19 +10855,19 @@
         <v>80397</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>69185</v>
+        <v>68520</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93566</v>
+        <v>93869</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3048218000442268</v>
+        <v>0.3048218000442266</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2623134499186324</v>
+        <v>0.2597907890409287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3547512460216843</v>
+        <v>0.3559008471665762</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>201</v>
@@ -10876,19 +10876,19 @@
         <v>170052</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>150176</v>
+        <v>150026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>189178</v>
+        <v>189486</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.318176721485208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2809879217197431</v>
+        <v>0.2807066912720835</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3539635385963534</v>
+        <v>0.3545386633648262</v>
       </c>
     </row>
     <row r="27">
@@ -10980,19 +10980,19 @@
         <v>289551</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>260020</v>
+        <v>260280</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>318563</v>
+        <v>320199</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4023290157077219</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3612963838502114</v>
+        <v>0.3616570143087367</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4426408120819936</v>
+        <v>0.4449135825128276</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>621</v>
@@ -11001,19 +11001,19 @@
         <v>478989</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>453619</v>
+        <v>452989</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>503579</v>
+        <v>504014</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6204056454359628</v>
+        <v>0.6204056454359629</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5875461208524657</v>
+        <v>0.5867305484231921</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.652256456231211</v>
+        <v>0.6528192103234974</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>891</v>
@@ -11022,19 +11022,19 @@
         <v>768539</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>726105</v>
+        <v>725050</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>809178</v>
+        <v>807682</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5151952710020654</v>
+        <v>0.5151952710020655</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4867494020236818</v>
+        <v>0.4860420478826032</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5424374508236586</v>
+        <v>0.5414345423614939</v>
       </c>
     </row>
     <row r="29">
@@ -11051,19 +11051,19 @@
         <v>167641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>141792</v>
+        <v>140932</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>196813</v>
+        <v>194930</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2329360455371129</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1970194761228579</v>
+        <v>0.1958238671764037</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2734702135682965</v>
+        <v>0.2708533210099353</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>177</v>
@@ -11072,19 +11072,19 @@
         <v>150600</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129733</v>
+        <v>129617</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>173209</v>
+        <v>171926</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1950631583317884</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1680358287387195</v>
+        <v>0.1678858676836594</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2243477326263312</v>
+        <v>0.2226858266753818</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>315</v>
@@ -11093,19 +11093,19 @@
         <v>318241</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>285167</v>
+        <v>285972</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>355282</v>
+        <v>352350</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2133348119644149</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1911634061345279</v>
+        <v>0.1917029522999809</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2381657117624841</v>
+        <v>0.2361998019489613</v>
       </c>
     </row>
     <row r="30">
@@ -11122,19 +11122,19 @@
         <v>262495</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>231962</v>
+        <v>231900</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>292361</v>
+        <v>296674</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3647349387551653</v>
+        <v>0.3647349387551652</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3223095435865684</v>
+        <v>0.3222228247698024</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4062331241612536</v>
+        <v>0.4122271154867911</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>162</v>
@@ -11143,19 +11143,19 @@
         <v>142469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>121958</v>
+        <v>122357</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>165500</v>
+        <v>167733</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1845311962322486</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1579654914952473</v>
+        <v>0.1584817721607094</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2143618526149684</v>
+        <v>0.2172547455110786</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>353</v>
@@ -11164,19 +11164,19 @@
         <v>404964</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>367482</v>
+        <v>367404</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>446586</v>
+        <v>448099</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2714699170335196</v>
+        <v>0.2714699170335197</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2463439484788396</v>
+        <v>0.2462914685306875</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2993720269045689</v>
+        <v>0.3003863086689744</v>
       </c>
     </row>
     <row r="31">
@@ -11268,19 +11268,19 @@
         <v>209413</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>186651</v>
+        <v>185712</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>233849</v>
+        <v>236013</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2623990678926146</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2338774069080566</v>
+        <v>0.2327007514582116</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2930173579607411</v>
+        <v>0.2957295779146342</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>449</v>
@@ -11289,19 +11289,19 @@
         <v>307446</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>282584</v>
+        <v>284280</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>333585</v>
+        <v>332681</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3698237426402415</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3399179124093319</v>
+        <v>0.3419572971904806</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4012659240351959</v>
+        <v>0.4001791579017345</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>694</v>
@@ -11310,19 +11310,19 @@
         <v>516859</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>484307</v>
+        <v>480787</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>553699</v>
+        <v>551737</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3172077871821047</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2972298431886307</v>
+        <v>0.2950694862359342</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3398173149893895</v>
+        <v>0.3386132808521101</v>
       </c>
     </row>
     <row r="33">
@@ -11339,19 +11339,19 @@
         <v>140759</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>119597</v>
+        <v>119600</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>162647</v>
+        <v>165517</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1763734494597688</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1498574470442307</v>
+        <v>0.1498605528410082</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2037994221304079</v>
+        <v>0.2073956030452326</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>200</v>
@@ -11360,19 +11360,19 @@
         <v>152111</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>131978</v>
+        <v>133699</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>172175</v>
+        <v>172716</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1829726890642751</v>
+        <v>0.182972689064275</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1587547941493909</v>
+        <v>0.16082502534412</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2071074122874511</v>
+        <v>0.2077578855633508</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>347</v>
@@ -11381,19 +11381,19 @@
         <v>292870</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>265037</v>
+        <v>262761</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>320732</v>
+        <v>321161</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.179740421450675</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1626589603559905</v>
+        <v>0.1612619899456409</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1968400510333544</v>
+        <v>0.1971034768260737</v>
       </c>
     </row>
     <row r="34">
@@ -11410,19 +11410,19 @@
         <v>447900</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>418976</v>
+        <v>416693</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>476137</v>
+        <v>478196</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5612274826476166</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5249846615662955</v>
+        <v>0.5221245437079239</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5966095879274168</v>
+        <v>0.599188791212737</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>413</v>
@@ -11431,19 +11431,19 @@
         <v>371774</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>345345</v>
+        <v>346517</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>397190</v>
+        <v>397007</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4472035682954836</v>
+        <v>0.4472035682954835</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4154126714331003</v>
+        <v>0.4168219951968575</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.477775423793871</v>
+        <v>0.4775554531994781</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>783</v>
@@ -11452,19 +11452,19 @@
         <v>819674</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>780632</v>
+        <v>780452</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>860477</v>
+        <v>862956</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5030517913672204</v>
+        <v>0.5030517913672202</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4790908509601287</v>
+        <v>0.4789801808710212</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5280935303120952</v>
+        <v>0.5296146008240216</v>
       </c>
     </row>
     <row r="35">
@@ -11556,19 +11556,19 @@
         <v>1140819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3229256272451861</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2774</v>
@@ -11577,19 +11577,19 @@
         <v>1724142</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4613763600743805</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4098</v>
@@ -11598,19 +11598,19 @@
         <v>2864962</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3940954002529922</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="37">
@@ -11627,19 +11627,19 @@
         <v>779915</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>729561</v>
+        <v>725923</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>838966</v>
+        <v>828557</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2207663251698474</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2065130533358705</v>
+        <v>0.2054832030484751</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2374815047478641</v>
+        <v>0.2345351954599796</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1045</v>
@@ -11648,19 +11648,19 @@
         <v>755424</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>711361</v>
+        <v>709280</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>799648</v>
+        <v>800679</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2021496250219207</v>
+        <v>0.2021496250219206</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1903584271849001</v>
+        <v>0.1898017481651035</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2139839215277258</v>
+        <v>0.2142598716544555</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1804</v>
@@ -11669,19 +11669,19 @@
         <v>1535339</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1461357</v>
+        <v>1465064</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1608348</v>
+        <v>1610257</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2111965215537343</v>
+        <v>0.2111965215537342</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2010197785893098</v>
+        <v>0.2015297354617888</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2212394617412108</v>
+        <v>0.2215020561643035</v>
       </c>
     </row>
     <row r="38">
@@ -11698,19 +11698,19 @@
         <v>1612028</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1543510</v>
+        <v>1545338</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1676953</v>
+        <v>1680879</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4563080475849665</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4369130641151273</v>
+        <v>0.4374304976743967</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4746860029308513</v>
+        <v>0.475797393798334</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1548</v>
@@ -11719,19 +11719,19 @@
         <v>1257388</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1210466</v>
+        <v>1206360</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1317551</v>
+        <v>1316328</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.3364740149036989</v>
+        <v>0.3364740149036988</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3239178537410344</v>
+        <v>0.3228190510847619</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.35257345832186</v>
+        <v>0.3522463098588632</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2841</v>
@@ -11740,19 +11740,19 @@
         <v>2869416</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2789491</v>
+        <v>2785815</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2967216</v>
+        <v>2960312</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3947080781932735</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.383713875134561</v>
+        <v>0.3832081684443428</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4081611815922125</v>
+        <v>0.4072115270480127</v>
       </c>
     </row>
     <row r="39">
